--- a/t_Batch.xlsx
+++ b/t_Batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://morningstaronline-my.sharepoint.com/personal/spencer_klug_pitchbook_com/Documents/India_PF_Expansion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_02F1510702721CDFEC4C5CD4475DCE3A874A9378" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CF133D5-0E55-4942-ACBC-EC78E036A0FF}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="11_3CA50A2AC14B36DFEC4C5CD4475DCE3A874AB8AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E18A3A55-6F56-411E-B308-BE3AAC46E4CD}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-9690" yWindow="12165" windowWidth="19185" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AQ$501</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2882,12 +2893,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2917,13 +2934,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3226,53 +3245,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AQ501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="33.6328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="44.1796875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.35">
@@ -3403,7 +3422,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2500</v>
       </c>
@@ -3423,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2501</v>
       </c>
@@ -3443,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2502</v>
       </c>
@@ -3567,14 +3586,8 @@
       <c r="E7" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="2">
-        <v>44541</v>
-      </c>
       <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.35">
@@ -3593,14 +3606,8 @@
       <c r="E8" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="2">
-        <v>44541</v>
-      </c>
       <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.35">
@@ -3619,14 +3626,8 @@
       <c r="E9" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="2">
-        <v>44541</v>
-      </c>
       <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>42825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.35">
@@ -3645,14 +3646,8 @@
       <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="2">
-        <v>44541</v>
-      </c>
       <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.35">
@@ -3671,14 +3666,8 @@
       <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="2">
-        <v>44541</v>
-      </c>
       <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>42460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.35">
@@ -3803,14 +3792,8 @@
       <c r="E14" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="2">
-        <v>44541</v>
-      </c>
       <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>40268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.35">
@@ -3873,14 +3856,8 @@
       <c r="E16" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="2">
-        <v>44541</v>
-      </c>
       <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3">
-        <v>42094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.35">
@@ -4276,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2518</v>
       </c>
@@ -4296,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2519</v>
       </c>
@@ -4316,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2520</v>
       </c>
@@ -4336,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2521</v>
       </c>
@@ -4527,7 +4504,7 @@
         <v>88763308</v>
       </c>
     </row>
-    <row r="27" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2525</v>
       </c>
@@ -4547,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2526</v>
       </c>
@@ -4567,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2527</v>
       </c>
@@ -4587,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2528</v>
       </c>
@@ -4667,14 +4644,8 @@
       <c r="E32" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="2">
-        <v>44541</v>
-      </c>
       <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3">
-        <v>39172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.35">
@@ -4721,7 +4692,7 @@
         <v>-49399460</v>
       </c>
     </row>
-    <row r="34" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2532</v>
       </c>
@@ -4757,14 +4728,8 @@
       <c r="E35" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="2">
-        <v>44541</v>
-      </c>
       <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.35">
@@ -4783,14 +4748,8 @@
       <c r="E36" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="2">
-        <v>44541</v>
-      </c>
       <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3">
-        <v>43830</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.35">
@@ -4809,14 +4768,8 @@
       <c r="E37" t="s">
         <v>107</v>
       </c>
-      <c r="F37" s="2">
-        <v>44541</v>
-      </c>
       <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3">
-        <v>42825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.35">
@@ -4835,14 +4788,8 @@
       <c r="E38" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="2">
-        <v>44541</v>
-      </c>
       <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.35">
@@ -4861,14 +4808,8 @@
       <c r="E39" t="s">
         <v>111</v>
       </c>
-      <c r="F39" s="2">
-        <v>44541</v>
-      </c>
       <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="3">
-        <v>44196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.35">
@@ -5005,14 +4946,8 @@
       <c r="E42" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="2">
-        <v>44541</v>
-      </c>
       <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3">
-        <v>42460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.35">
@@ -5908,82 +5843,92 @@
       <c r="G51" t="b">
         <v>1</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="4">
         <v>41729</v>
       </c>
-      <c r="O51">
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5">
         <v>11208133</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="5">
         <v>5900000</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="5">
         <v>416</v>
       </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
+      <c r="R51" s="5">
+        <v>0</v>
+      </c>
+      <c r="S51" s="5">
         <v>11137897</v>
       </c>
-      <c r="T51">
+      <c r="T51" s="5">
         <v>14725223</v>
       </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
+      <c r="U51" s="5">
+        <v>0</v>
+      </c>
+      <c r="V51" s="5">
+        <v>0</v>
+      </c>
+      <c r="W51" s="5">
+        <v>0</v>
+      </c>
+      <c r="X51" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="5">
         <v>854000</v>
       </c>
-      <c r="Z51">
+      <c r="Z51" s="5">
         <v>30538062</v>
       </c>
-      <c r="AE51">
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5">
         <v>7350000</v>
       </c>
-      <c r="AF51">
-        <v>0</v>
-      </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51">
+      <c r="AF51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="5">
         <v>1352701</v>
       </c>
-      <c r="AI51">
+      <c r="AI51" s="5">
         <v>236770</v>
       </c>
-      <c r="AJ51">
+      <c r="AJ51" s="5">
         <v>4490042</v>
       </c>
-      <c r="AK51">
-        <v>0</v>
-      </c>
-      <c r="AL51">
+      <c r="AK51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="5">
         <v>429109</v>
       </c>
-      <c r="AM51">
-        <v>0</v>
-      </c>
-      <c r="AN51">
-        <v>0</v>
-      </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
-      <c r="AP51">
-        <v>0</v>
-      </c>
-      <c r="AQ51">
+      <c r="AM51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="5">
         <v>3391833</v>
       </c>
     </row>
@@ -6009,82 +5954,92 @@
       <c r="G52" t="b">
         <v>1</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="4">
         <v>41364</v>
       </c>
-      <c r="O52">
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5">
         <v>6541599</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="5">
         <v>4500000</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="5">
         <v>2266</v>
       </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
+      <c r="R52" s="5">
+        <v>0</v>
+      </c>
+      <c r="S52" s="5">
         <v>8073345</v>
       </c>
-      <c r="T52">
+      <c r="T52" s="5">
         <v>12109</v>
       </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="Y52">
+      <c r="U52" s="5">
+        <v>0</v>
+      </c>
+      <c r="V52" s="5">
+        <v>0</v>
+      </c>
+      <c r="W52" s="5">
+        <v>0</v>
+      </c>
+      <c r="X52" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="5">
         <v>15512069</v>
       </c>
-      <c r="Z52">
+      <c r="Z52" s="5">
         <v>24577354</v>
       </c>
-      <c r="AE52">
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5">
         <v>9350000</v>
       </c>
-      <c r="AF52">
-        <v>0</v>
-      </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52">
+      <c r="AF52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="5">
         <v>1072153</v>
       </c>
-      <c r="AI52">
+      <c r="AI52" s="5">
         <v>304907</v>
       </c>
-      <c r="AJ52">
+      <c r="AJ52" s="5">
         <v>2806429</v>
       </c>
-      <c r="AK52">
-        <v>0</v>
-      </c>
-      <c r="AL52">
+      <c r="AK52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="5">
         <v>422935</v>
       </c>
-      <c r="AM52">
-        <v>0</v>
-      </c>
-      <c r="AN52">
-        <v>0</v>
-      </c>
-      <c r="AO52">
-        <v>0</v>
-      </c>
-      <c r="AP52">
-        <v>0</v>
-      </c>
-      <c r="AQ52">
+      <c r="AM52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="5">
         <v>556896</v>
       </c>
     </row>
@@ -6411,14 +6366,8 @@
       <c r="E58" t="s">
         <v>147</v>
       </c>
-      <c r="F58" s="2">
-        <v>44541</v>
-      </c>
       <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.35">
@@ -6437,14 +6386,8 @@
       <c r="E59" t="s">
         <v>149</v>
       </c>
-      <c r="F59" s="2">
-        <v>44541</v>
-      </c>
       <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.35">
@@ -6463,14 +6406,8 @@
       <c r="E60" t="s">
         <v>151</v>
       </c>
-      <c r="F60" s="2">
-        <v>44541</v>
-      </c>
       <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.35">
@@ -7007,14 +6944,8 @@
       <c r="E65" t="s">
         <v>147</v>
       </c>
-      <c r="F65" s="2">
-        <v>44541</v>
-      </c>
       <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.35">
@@ -7601,14 +7532,8 @@
       <c r="E74" t="s">
         <v>165</v>
       </c>
-      <c r="F74" s="2">
-        <v>44541</v>
-      </c>
       <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" s="3">
-        <v>40633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:43" x14ac:dyDescent="0.35">
@@ -8161,14 +8086,8 @@
       <c r="E81" t="s">
         <v>186</v>
       </c>
-      <c r="F81" s="2">
-        <v>44541</v>
-      </c>
       <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:43" x14ac:dyDescent="0.35">
@@ -8187,14 +8106,8 @@
       <c r="E82" t="s">
         <v>188</v>
       </c>
-      <c r="F82" s="2">
-        <v>44541</v>
-      </c>
       <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:43" x14ac:dyDescent="0.35">
@@ -8734,14 +8647,8 @@
       <c r="E87" t="s">
         <v>197</v>
       </c>
-      <c r="F87" s="2">
-        <v>44541</v>
-      </c>
       <c r="G87" t="b">
-        <v>1</v>
-      </c>
-      <c r="H87" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:43" x14ac:dyDescent="0.35">
@@ -8760,14 +8667,8 @@
       <c r="E88" t="s">
         <v>199</v>
       </c>
-      <c r="F88" s="2">
-        <v>44541</v>
-      </c>
       <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:43" x14ac:dyDescent="0.35">
@@ -8786,14 +8687,8 @@
       <c r="E89" t="s">
         <v>201</v>
       </c>
-      <c r="F89" s="2">
-        <v>44541</v>
-      </c>
       <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:43" x14ac:dyDescent="0.35">
@@ -10144,7 +10039,7 @@
         <v>21151</v>
       </c>
     </row>
-    <row r="101" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>2599</v>
       </c>
@@ -10164,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>2600</v>
       </c>
@@ -10184,7 +10079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>2601</v>
       </c>
@@ -10220,14 +10115,8 @@
       <c r="E104" t="s">
         <v>232</v>
       </c>
-      <c r="F104" s="2">
-        <v>44541</v>
-      </c>
       <c r="G104" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:43" x14ac:dyDescent="0.35">
@@ -10246,14 +10135,8 @@
       <c r="E105" t="s">
         <v>234</v>
       </c>
-      <c r="F105" s="2">
-        <v>44541</v>
-      </c>
       <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="3">
-        <v>42825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:43" x14ac:dyDescent="0.35">
@@ -10272,14 +10155,8 @@
       <c r="E106" t="s">
         <v>236</v>
       </c>
-      <c r="F106" s="2">
-        <v>44541</v>
-      </c>
       <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:43" x14ac:dyDescent="0.35">
@@ -10298,14 +10175,8 @@
       <c r="E107" t="s">
         <v>238</v>
       </c>
-      <c r="F107" s="2">
-        <v>44541</v>
-      </c>
       <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:43" x14ac:dyDescent="0.35">
@@ -10484,14 +10355,8 @@
       <c r="E110" t="s">
         <v>244</v>
       </c>
-      <c r="F110" s="2">
-        <v>44541</v>
-      </c>
       <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="3">
-        <v>42460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:43" x14ac:dyDescent="0.35">
@@ -11160,14 +11025,8 @@
       <c r="E118" t="s">
         <v>261</v>
       </c>
-      <c r="F118" s="2">
-        <v>44541</v>
-      </c>
       <c r="G118" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:43" x14ac:dyDescent="0.35">
@@ -11186,14 +11045,8 @@
       <c r="E119" t="s">
         <v>223</v>
       </c>
-      <c r="F119" s="2">
-        <v>44541</v>
-      </c>
       <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:43" x14ac:dyDescent="0.35">
@@ -11212,14 +11065,8 @@
       <c r="E120" t="s">
         <v>264</v>
       </c>
-      <c r="F120" s="2">
-        <v>44541</v>
-      </c>
       <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:43" x14ac:dyDescent="0.35">
@@ -11735,42 +11582,66 @@
       <c r="G125" t="b">
         <v>1</v>
       </c>
-      <c r="H125" s="3">
+      <c r="H125" s="4">
         <v>39538</v>
       </c>
-      <c r="L125">
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5">
         <v>63887</v>
       </c>
-      <c r="O125">
-        <v>0</v>
-      </c>
-      <c r="P125">
+      <c r="M125" s="5"/>
+      <c r="N125" s="5"/>
+      <c r="O125" s="5">
+        <v>0</v>
+      </c>
+      <c r="P125" s="5">
         <v>7045953</v>
       </c>
-      <c r="R125">
-        <v>0</v>
-      </c>
-      <c r="T125">
+      <c r="Q125" s="5"/>
+      <c r="R125" s="5">
+        <v>0</v>
+      </c>
+      <c r="S125" s="5"/>
+      <c r="T125" s="5">
         <v>27941</v>
       </c>
-      <c r="V125">
+      <c r="U125" s="5"/>
+      <c r="V125" s="5">
         <v>4676011</v>
       </c>
-      <c r="W125">
-        <v>0</v>
-      </c>
-      <c r="X125">
-        <v>0</v>
-      </c>
-      <c r="Y125">
+      <c r="W125" s="5">
+        <v>0</v>
+      </c>
+      <c r="X125" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y125" s="5">
         <v>1008786</v>
       </c>
-      <c r="Z125">
+      <c r="Z125" s="5">
         <v>7045953</v>
       </c>
-      <c r="AO125">
-        <v>0</v>
-      </c>
+      <c r="AA125" s="5"/>
+      <c r="AB125" s="5"/>
+      <c r="AC125" s="5"/>
+      <c r="AD125" s="5"/>
+      <c r="AE125" s="5"/>
+      <c r="AF125" s="5"/>
+      <c r="AG125" s="5"/>
+      <c r="AH125" s="5"/>
+      <c r="AI125" s="5"/>
+      <c r="AJ125" s="5"/>
+      <c r="AK125" s="5"/>
+      <c r="AL125" s="5"/>
+      <c r="AM125" s="5"/>
+      <c r="AN125" s="5"/>
+      <c r="AO125" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP125" s="5"/>
+      <c r="AQ125" s="5"/>
     </row>
     <row r="126" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
@@ -12499,14 +12370,8 @@
       <c r="E138" t="s">
         <v>293</v>
       </c>
-      <c r="F138" s="2">
-        <v>44541</v>
-      </c>
       <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:43" x14ac:dyDescent="0.35">
@@ -12525,14 +12390,8 @@
       <c r="E139" t="s">
         <v>295</v>
       </c>
-      <c r="F139" s="2">
-        <v>44541</v>
-      </c>
       <c r="G139" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:43" x14ac:dyDescent="0.35">
@@ -12551,14 +12410,8 @@
       <c r="E140" t="s">
         <v>297</v>
       </c>
-      <c r="F140" s="2">
-        <v>44541</v>
-      </c>
       <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="3">
-        <v>42460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:43" x14ac:dyDescent="0.35">
@@ -12577,14 +12430,8 @@
       <c r="E141" t="s">
         <v>105</v>
       </c>
-      <c r="F141" s="2">
-        <v>44541</v>
-      </c>
       <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:43" x14ac:dyDescent="0.35">
@@ -12603,14 +12450,8 @@
       <c r="E142" t="s">
         <v>300</v>
       </c>
-      <c r="F142" s="2">
-        <v>44541</v>
-      </c>
       <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="3">
-        <v>42825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:43" x14ac:dyDescent="0.35">
@@ -13219,14 +13060,8 @@
       <c r="E150" t="s">
         <v>317</v>
       </c>
-      <c r="F150" s="2">
-        <v>44541</v>
-      </c>
       <c r="G150" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:43" x14ac:dyDescent="0.35">
@@ -13245,14 +13080,8 @@
       <c r="E151" t="s">
         <v>319</v>
       </c>
-      <c r="F151" s="2">
-        <v>44541</v>
-      </c>
       <c r="G151" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" s="3">
-        <v>42825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:43" x14ac:dyDescent="0.35">
@@ -13271,14 +13100,8 @@
       <c r="E152" t="s">
         <v>321</v>
       </c>
-      <c r="F152" s="2">
-        <v>44541</v>
-      </c>
       <c r="G152" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:43" x14ac:dyDescent="0.35">
@@ -13297,14 +13120,8 @@
       <c r="E153" t="s">
         <v>323</v>
       </c>
-      <c r="F153" s="2">
-        <v>44541</v>
-      </c>
       <c r="G153" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:43" x14ac:dyDescent="0.35">
@@ -13552,17 +13369,11 @@
       <c r="E156" t="s">
         <v>62</v>
       </c>
-      <c r="F156" s="2">
-        <v>44541</v>
-      </c>
       <c r="G156" t="b">
-        <v>1</v>
-      </c>
-      <c r="H156" s="3">
-        <v>42460</v>
-      </c>
-    </row>
-    <row r="157" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>2655</v>
       </c>
@@ -13582,7 +13393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>2656</v>
       </c>
@@ -13602,7 +13413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>2657</v>
       </c>
@@ -13622,7 +13433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>2658</v>
       </c>
@@ -13860,7 +13671,7 @@
         <v>3682587</v>
       </c>
     </row>
-    <row r="165" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>2663</v>
       </c>
@@ -13880,7 +13691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>2664</v>
       </c>
@@ -13900,7 +13711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>2665</v>
       </c>
@@ -13920,7 +13731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>2666</v>
       </c>
@@ -14116,7 +13927,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="173" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>2671</v>
       </c>
@@ -14136,7 +13947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>2672</v>
       </c>
@@ -14172,14 +13983,8 @@
       <c r="E175" t="s">
         <v>357</v>
       </c>
-      <c r="F175" s="2">
-        <v>44541</v>
-      </c>
       <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:41" x14ac:dyDescent="0.35">
@@ -14198,14 +14003,8 @@
       <c r="E176" t="s">
         <v>359</v>
       </c>
-      <c r="F176" s="2">
-        <v>44541</v>
-      </c>
       <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:43" x14ac:dyDescent="0.35">
@@ -14224,14 +14023,8 @@
       <c r="E177" t="s">
         <v>361</v>
       </c>
-      <c r="F177" s="2">
-        <v>44541</v>
-      </c>
       <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:43" x14ac:dyDescent="0.35">
@@ -14250,14 +14043,8 @@
       <c r="E178" t="s">
         <v>182</v>
       </c>
-      <c r="F178" s="2">
-        <v>44541</v>
-      </c>
       <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="3">
-        <v>42825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:43" x14ac:dyDescent="0.35">
@@ -14276,14 +14063,8 @@
       <c r="E179" t="s">
         <v>364</v>
       </c>
-      <c r="F179" s="2">
-        <v>44541</v>
-      </c>
       <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:43" x14ac:dyDescent="0.35">
@@ -14411,14 +14192,8 @@
       <c r="E182" t="s">
         <v>370</v>
       </c>
-      <c r="F182" s="2">
-        <v>44541</v>
-      </c>
       <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="3">
-        <v>42460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:43" x14ac:dyDescent="0.35">
@@ -14437,14 +14212,8 @@
       <c r="E183" t="s">
         <v>366</v>
       </c>
-      <c r="F183" s="2">
-        <v>44541</v>
-      </c>
       <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="3">
-        <v>40268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:43" x14ac:dyDescent="0.35">
@@ -15689,112 +15458,112 @@
       <c r="G194" t="b">
         <v>1</v>
       </c>
-      <c r="H194" s="3">
+      <c r="H194" s="4">
         <v>43921</v>
       </c>
-      <c r="I194">
+      <c r="I194" s="5">
         <v>38694841</v>
       </c>
-      <c r="J194">
+      <c r="J194" s="5">
         <v>-119064331</v>
       </c>
-      <c r="K194">
+      <c r="K194" s="5">
         <v>40589805</v>
       </c>
-      <c r="L194">
+      <c r="L194" s="5">
         <v>5247474</v>
       </c>
-      <c r="M194">
+      <c r="M194" s="5">
         <v>157759172</v>
       </c>
-      <c r="N194">
-        <v>0</v>
-      </c>
-      <c r="O194">
+      <c r="N194" s="5">
+        <v>0</v>
+      </c>
+      <c r="O194" s="5">
         <v>-4614753</v>
       </c>
-      <c r="P194">
+      <c r="P194" s="5">
         <v>129658000</v>
       </c>
-      <c r="Q194">
-        <v>0</v>
-      </c>
-      <c r="R194">
+      <c r="Q194" s="5">
+        <v>0</v>
+      </c>
+      <c r="R194" s="5">
         <v>30639700</v>
       </c>
-      <c r="S194">
-        <v>0</v>
-      </c>
-      <c r="T194">
+      <c r="S194" s="5">
+        <v>0</v>
+      </c>
+      <c r="T194" s="5">
         <v>35969226</v>
       </c>
-      <c r="U194">
+      <c r="U194" s="5">
         <v>31097085</v>
       </c>
-      <c r="V194">
-        <v>0</v>
-      </c>
-      <c r="W194">
-        <v>0</v>
-      </c>
-      <c r="X194">
+      <c r="V194" s="5">
+        <v>0</v>
+      </c>
+      <c r="W194" s="5">
+        <v>0</v>
+      </c>
+      <c r="X194" s="5">
         <v>44410939</v>
       </c>
-      <c r="Y194">
-        <v>0</v>
-      </c>
-      <c r="Z194">
+      <c r="Y194" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z194" s="5">
         <v>748458032</v>
       </c>
-      <c r="AA194">
-        <v>0</v>
-      </c>
-      <c r="AB194">
+      <c r="AA194" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB194" s="5">
         <v>73849143</v>
       </c>
-      <c r="AC194">
-        <v>0</v>
-      </c>
-      <c r="AD194">
+      <c r="AC194" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD194" s="5">
         <v>-119064331</v>
       </c>
-      <c r="AE194">
-        <v>0</v>
-      </c>
-      <c r="AF194">
+      <c r="AE194" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF194" s="5">
         <v>2500000</v>
       </c>
-      <c r="AG194">
+      <c r="AG194" s="5">
         <v>2234627</v>
       </c>
-      <c r="AH194">
+      <c r="AH194" s="5">
         <v>78141480</v>
       </c>
-      <c r="AI194">
+      <c r="AI194" s="5">
         <v>1357582</v>
       </c>
-      <c r="AJ194">
+      <c r="AJ194" s="5">
         <v>316338786</v>
       </c>
-      <c r="AK194">
+      <c r="AK194" s="5">
         <v>222842310</v>
       </c>
-      <c r="AL194">
+      <c r="AL194" s="5">
         <v>9519147</v>
       </c>
-      <c r="AM194">
+      <c r="AM194" s="5">
         <v>106936</v>
       </c>
-      <c r="AN194">
-        <v>0</v>
-      </c>
-      <c r="AO194">
-        <v>0</v>
-      </c>
-      <c r="AP194">
+      <c r="AN194" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO194" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP194" s="5">
         <v>70909600</v>
       </c>
-      <c r="AQ194">
+      <c r="AQ194" s="5">
         <v>525805399</v>
       </c>
     </row>
@@ -16522,7 +16291,7 @@
         <v>10908968</v>
       </c>
     </row>
-    <row r="206" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>2704</v>
       </c>
@@ -16542,7 +16311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>2705</v>
       </c>
@@ -16562,7 +16331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>2706</v>
       </c>
@@ -16582,7 +16351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>2707</v>
       </c>
@@ -16602,7 +16371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>2708</v>
       </c>
@@ -16622,7 +16391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>2709</v>
       </c>
@@ -16642,7 +16411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>2710</v>
       </c>
@@ -16662,7 +16431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>2711</v>
       </c>
@@ -16682,7 +16451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>2712</v>
       </c>
@@ -16718,14 +16487,8 @@
       <c r="E215" t="s">
         <v>427</v>
       </c>
-      <c r="F215" s="2">
-        <v>44541</v>
-      </c>
       <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="3">
-        <v>42460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:43" x14ac:dyDescent="0.35">
@@ -16838,14 +16601,8 @@
       <c r="E218" t="s">
         <v>434</v>
       </c>
-      <c r="F218" s="2">
-        <v>44541</v>
-      </c>
       <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:43" x14ac:dyDescent="0.35">
@@ -16864,14 +16621,8 @@
       <c r="E219" t="s">
         <v>436</v>
       </c>
-      <c r="F219" s="2">
-        <v>44541</v>
-      </c>
       <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:43" x14ac:dyDescent="0.35">
@@ -16890,14 +16641,8 @@
       <c r="E220" t="s">
         <v>438</v>
       </c>
-      <c r="F220" s="2">
-        <v>44541</v>
-      </c>
       <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="3">
-        <v>42825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:43" x14ac:dyDescent="0.35">
@@ -16916,14 +16661,8 @@
       <c r="E221" t="s">
         <v>440</v>
       </c>
-      <c r="F221" s="2">
-        <v>44541</v>
-      </c>
       <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:43" x14ac:dyDescent="0.35">
@@ -18171,7 +17910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>2732</v>
       </c>
@@ -18191,7 +17930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>2733</v>
       </c>
@@ -18211,7 +17950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>2734</v>
       </c>
@@ -18231,7 +17970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>2735</v>
       </c>
@@ -18310,7 +18049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>2737</v>
       </c>
@@ -18330,7 +18069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>2738</v>
       </c>
@@ -18350,7 +18089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>2739</v>
       </c>
@@ -18370,7 +18109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>2740</v>
       </c>
@@ -18434,7 +18173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>2742</v>
       </c>
@@ -18470,14 +18209,8 @@
       <c r="E245" t="s">
         <v>482</v>
       </c>
-      <c r="F245" s="2">
-        <v>44541</v>
-      </c>
       <c r="G245" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:41" x14ac:dyDescent="0.35">
@@ -18496,14 +18229,8 @@
       <c r="E246" t="s">
         <v>484</v>
       </c>
-      <c r="F246" s="2">
-        <v>44541</v>
-      </c>
       <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" s="3">
-        <v>44286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:41" x14ac:dyDescent="0.35">
@@ -18522,14 +18249,8 @@
       <c r="E247" t="s">
         <v>486</v>
       </c>
-      <c r="F247" s="2">
-        <v>44541</v>
-      </c>
       <c r="G247" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:41" x14ac:dyDescent="0.35">
@@ -18548,14 +18269,8 @@
       <c r="E248" t="s">
         <v>488</v>
       </c>
-      <c r="F248" s="2">
-        <v>44541</v>
-      </c>
       <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:41" x14ac:dyDescent="0.35">
@@ -18574,14 +18289,8 @@
       <c r="E249" t="s">
         <v>490</v>
       </c>
-      <c r="F249" s="2">
-        <v>44541</v>
-      </c>
       <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="3">
-        <v>42825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:41" x14ac:dyDescent="0.35">
@@ -18600,14 +18309,8 @@
       <c r="E250" t="s">
         <v>492</v>
       </c>
-      <c r="F250" s="2">
-        <v>44541</v>
-      </c>
       <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="3">
-        <v>42825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:41" x14ac:dyDescent="0.35">
@@ -18744,14 +18447,8 @@
       <c r="E253" t="s">
         <v>498</v>
       </c>
-      <c r="F253" s="2">
-        <v>44541</v>
-      </c>
       <c r="G253" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" s="3">
-        <v>42460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:41" x14ac:dyDescent="0.35">
@@ -18858,14 +18555,8 @@
       <c r="E256" t="s">
         <v>247</v>
       </c>
-      <c r="F256" s="2">
-        <v>44541</v>
-      </c>
       <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:43" x14ac:dyDescent="0.35">
@@ -18884,14 +18575,8 @@
       <c r="E257" t="s">
         <v>504</v>
       </c>
-      <c r="F257" s="2">
-        <v>44541</v>
-      </c>
       <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:43" x14ac:dyDescent="0.35">
@@ -18910,14 +18595,8 @@
       <c r="E258" t="s">
         <v>506</v>
       </c>
-      <c r="F258" s="2">
-        <v>44541</v>
-      </c>
       <c r="G258" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:43" x14ac:dyDescent="0.35">
@@ -18936,14 +18615,8 @@
       <c r="E259" t="s">
         <v>508</v>
       </c>
-      <c r="F259" s="2">
-        <v>44541</v>
-      </c>
       <c r="G259" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:43" x14ac:dyDescent="0.35">
@@ -19538,7 +19211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>2763</v>
       </c>
@@ -19558,7 +19231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>2764</v>
       </c>
@@ -19578,7 +19251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>2765</v>
       </c>
@@ -19614,14 +19287,8 @@
       <c r="E268" t="s">
         <v>525</v>
       </c>
-      <c r="F268" s="2">
-        <v>44541</v>
-      </c>
       <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:43" x14ac:dyDescent="0.35">
@@ -19640,14 +19307,8 @@
       <c r="E269" t="s">
         <v>527</v>
       </c>
-      <c r="F269" s="2">
-        <v>44541</v>
-      </c>
       <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:43" x14ac:dyDescent="0.35">
@@ -19666,14 +19327,8 @@
       <c r="E270" t="s">
         <v>529</v>
       </c>
-      <c r="F270" s="2">
-        <v>44541</v>
-      </c>
       <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:43" x14ac:dyDescent="0.35">
@@ -19692,14 +19347,8 @@
       <c r="E271" t="s">
         <v>438</v>
       </c>
-      <c r="F271" s="2">
-        <v>44541</v>
-      </c>
       <c r="G271" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" s="3">
-        <v>42825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:43" x14ac:dyDescent="0.35">
@@ -20117,14 +19766,8 @@
       <c r="E278" t="s">
         <v>540</v>
       </c>
-      <c r="F278" s="2">
-        <v>44541</v>
-      </c>
       <c r="G278" t="b">
-        <v>1</v>
-      </c>
-      <c r="H278" s="3">
-        <v>42460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:43" x14ac:dyDescent="0.35">
@@ -20143,14 +19786,8 @@
       <c r="E279" t="s">
         <v>543</v>
       </c>
-      <c r="F279" s="2">
-        <v>44541</v>
-      </c>
       <c r="G279" t="b">
-        <v>1</v>
-      </c>
-      <c r="H279" s="3">
-        <v>41729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:43" x14ac:dyDescent="0.35">
@@ -20169,14 +19806,8 @@
       <c r="E280" t="s">
         <v>186</v>
       </c>
-      <c r="F280" s="2">
-        <v>44541</v>
-      </c>
       <c r="G280" t="b">
-        <v>1</v>
-      </c>
-      <c r="H280" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:43" x14ac:dyDescent="0.35">
@@ -20195,14 +19826,8 @@
       <c r="E281" t="s">
         <v>546</v>
       </c>
-      <c r="F281" s="2">
-        <v>44541</v>
-      </c>
       <c r="G281" t="b">
-        <v>1</v>
-      </c>
-      <c r="H281" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:43" x14ac:dyDescent="0.35">
@@ -20221,14 +19846,8 @@
       <c r="E282" t="s">
         <v>548</v>
       </c>
-      <c r="F282" s="2">
-        <v>44541</v>
-      </c>
       <c r="G282" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282" s="3">
-        <v>42825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:43" x14ac:dyDescent="0.35">
@@ -20247,14 +19866,8 @@
       <c r="E283" t="s">
         <v>548</v>
       </c>
-      <c r="F283" s="2">
-        <v>44541</v>
-      </c>
       <c r="G283" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283" s="3">
-        <v>42094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:43" x14ac:dyDescent="0.35">
@@ -20273,14 +19886,8 @@
       <c r="E284" t="s">
         <v>548</v>
       </c>
-      <c r="F284" s="2">
-        <v>44541</v>
-      </c>
       <c r="G284" t="b">
-        <v>1</v>
-      </c>
-      <c r="H284" s="3">
-        <v>42460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:43" x14ac:dyDescent="0.35">
@@ -20512,14 +20119,8 @@
       <c r="E288" t="s">
         <v>558</v>
       </c>
-      <c r="F288" s="2">
-        <v>44541</v>
-      </c>
       <c r="G288" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:43" x14ac:dyDescent="0.35">
@@ -21661,14 +21262,8 @@
       <c r="E300" t="s">
         <v>580</v>
       </c>
-      <c r="F300" s="2">
-        <v>44541</v>
-      </c>
       <c r="G300" t="b">
-        <v>1</v>
-      </c>
-      <c r="H300" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:43" x14ac:dyDescent="0.35">
@@ -21687,14 +21282,8 @@
       <c r="E301" t="s">
         <v>582</v>
       </c>
-      <c r="F301" s="2">
-        <v>44541</v>
-      </c>
       <c r="G301" t="b">
-        <v>1</v>
-      </c>
-      <c r="H301" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:43" x14ac:dyDescent="0.35">
@@ -21713,14 +21302,8 @@
       <c r="E302" t="s">
         <v>584</v>
       </c>
-      <c r="F302" s="2">
-        <v>44541</v>
-      </c>
       <c r="G302" t="b">
-        <v>1</v>
-      </c>
-      <c r="H302" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:43" x14ac:dyDescent="0.35">
@@ -23261,7 +22844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>2817</v>
       </c>
@@ -23281,7 +22864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>2818</v>
       </c>
@@ -23301,7 +22884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>2819</v>
       </c>
@@ -23321,7 +22904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>2820</v>
       </c>
@@ -23738,7 +23321,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="331" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>2829</v>
       </c>
@@ -23774,14 +23357,8 @@
       <c r="E332" t="s">
         <v>635</v>
       </c>
-      <c r="F332" s="2">
-        <v>44541</v>
-      </c>
       <c r="G332" t="b">
-        <v>1</v>
-      </c>
-      <c r="H332" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:41" x14ac:dyDescent="0.35">
@@ -23800,14 +23377,8 @@
       <c r="E333" t="s">
         <v>637</v>
       </c>
-      <c r="F333" s="2">
-        <v>44541</v>
-      </c>
       <c r="G333" t="b">
-        <v>1</v>
-      </c>
-      <c r="H333" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:41" x14ac:dyDescent="0.35">
@@ -23826,14 +23397,8 @@
       <c r="E334" t="s">
         <v>639</v>
       </c>
-      <c r="F334" s="2">
-        <v>44541</v>
-      </c>
       <c r="G334" t="b">
-        <v>1</v>
-      </c>
-      <c r="H334" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:41" x14ac:dyDescent="0.35">
@@ -23852,14 +23417,8 @@
       <c r="E335" t="s">
         <v>641</v>
       </c>
-      <c r="F335" s="2">
-        <v>44541</v>
-      </c>
       <c r="G335" t="b">
-        <v>1</v>
-      </c>
-      <c r="H335" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:41" x14ac:dyDescent="0.35">
@@ -23878,14 +23437,8 @@
       <c r="E336" t="s">
         <v>643</v>
       </c>
-      <c r="F336" s="2">
-        <v>44541</v>
-      </c>
       <c r="G336" t="b">
-        <v>1</v>
-      </c>
-      <c r="H336" s="3">
-        <v>42825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:43" x14ac:dyDescent="0.35">
@@ -24081,14 +23634,8 @@
       <c r="E340" t="s">
         <v>651</v>
       </c>
-      <c r="F340" s="2">
-        <v>44541</v>
-      </c>
       <c r="G340" t="b">
-        <v>1</v>
-      </c>
-      <c r="H340" s="3">
-        <v>42460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:43" x14ac:dyDescent="0.35">
@@ -24151,14 +23698,8 @@
       <c r="E342" t="s">
         <v>655</v>
       </c>
-      <c r="F342" s="2">
-        <v>44541</v>
-      </c>
       <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:43" x14ac:dyDescent="0.35">
@@ -24177,14 +23718,8 @@
       <c r="E343" t="s">
         <v>249</v>
       </c>
-      <c r="F343" s="2">
-        <v>44541</v>
-      </c>
       <c r="G343" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:43" x14ac:dyDescent="0.35">
@@ -24203,14 +23738,8 @@
       <c r="E344" t="s">
         <v>658</v>
       </c>
-      <c r="F344" s="2">
-        <v>44541</v>
-      </c>
       <c r="G344" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:43" x14ac:dyDescent="0.35">
@@ -27116,7 +26645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>2874</v>
       </c>
@@ -27136,7 +26665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>2875</v>
       </c>
@@ -27156,7 +26685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>2876</v>
       </c>
@@ -27176,7 +26705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>2877</v>
       </c>
@@ -27383,14 +26912,8 @@
       <c r="E383" t="s">
         <v>734</v>
       </c>
-      <c r="F383" s="2">
-        <v>44541</v>
-      </c>
       <c r="G383" t="b">
-        <v>1</v>
-      </c>
-      <c r="H383" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:43" x14ac:dyDescent="0.35">
@@ -27409,14 +26932,8 @@
       <c r="E384" t="s">
         <v>736</v>
       </c>
-      <c r="F384" s="2">
-        <v>44541</v>
-      </c>
       <c r="G384" t="b">
-        <v>1</v>
-      </c>
-      <c r="H384" s="3">
-        <v>42825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:43" x14ac:dyDescent="0.35">
@@ -27435,14 +26952,8 @@
       <c r="E385" t="s">
         <v>738</v>
       </c>
-      <c r="F385" s="2">
-        <v>44541</v>
-      </c>
       <c r="G385" t="b">
-        <v>1</v>
-      </c>
-      <c r="H385" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:43" x14ac:dyDescent="0.35">
@@ -27461,14 +26972,8 @@
       <c r="E386" t="s">
         <v>73</v>
       </c>
-      <c r="F386" s="2">
-        <v>44541</v>
-      </c>
       <c r="G386" t="b">
-        <v>1</v>
-      </c>
-      <c r="H386" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:43" x14ac:dyDescent="0.35">
@@ -27596,14 +27101,8 @@
       <c r="E389" t="s">
         <v>744</v>
       </c>
-      <c r="F389" s="2">
-        <v>44541</v>
-      </c>
       <c r="G389" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" s="3">
-        <v>42094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:43" x14ac:dyDescent="0.35">
@@ -27622,14 +27121,8 @@
       <c r="E390" t="s">
         <v>744</v>
       </c>
-      <c r="F390" s="2">
-        <v>44541</v>
-      </c>
       <c r="G390" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" s="3">
-        <v>42094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:43" x14ac:dyDescent="0.35">
@@ -27648,14 +27141,8 @@
       <c r="E391" t="s">
         <v>747</v>
       </c>
-      <c r="F391" s="2">
-        <v>44541</v>
-      </c>
       <c r="G391" t="b">
-        <v>1</v>
-      </c>
-      <c r="H391" s="3">
-        <v>42460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:43" x14ac:dyDescent="0.35">
@@ -27674,14 +27161,8 @@
       <c r="E392" t="s">
         <v>747</v>
       </c>
-      <c r="F392" s="2">
-        <v>44541</v>
-      </c>
       <c r="G392" t="b">
-        <v>1</v>
-      </c>
-      <c r="H392" s="3">
-        <v>42460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:43" x14ac:dyDescent="0.35">
@@ -28685,14 +28166,8 @@
       <c r="E401" t="s">
         <v>766</v>
       </c>
-      <c r="F401" s="2">
-        <v>44541</v>
-      </c>
       <c r="G401" t="b">
-        <v>1</v>
-      </c>
-      <c r="H401" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:43" x14ac:dyDescent="0.35">
@@ -28711,14 +28186,8 @@
       <c r="E402" t="s">
         <v>707</v>
       </c>
-      <c r="F402" s="2">
-        <v>44541</v>
-      </c>
       <c r="G402" t="b">
-        <v>1</v>
-      </c>
-      <c r="H402" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:43" x14ac:dyDescent="0.35">
@@ -28737,14 +28206,8 @@
       <c r="E403" t="s">
         <v>769</v>
       </c>
-      <c r="F403" s="2">
-        <v>44541</v>
-      </c>
       <c r="G403" t="b">
-        <v>1</v>
-      </c>
-      <c r="H403" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:43" x14ac:dyDescent="0.35">
@@ -29610,14 +29073,8 @@
       <c r="E412" t="s">
         <v>786</v>
       </c>
-      <c r="F412" s="2">
-        <v>44541</v>
-      </c>
       <c r="G412" t="b">
-        <v>1</v>
-      </c>
-      <c r="H412" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:43" x14ac:dyDescent="0.35">
@@ -29636,14 +29093,8 @@
       <c r="E413" t="s">
         <v>788</v>
       </c>
-      <c r="F413" s="2">
-        <v>44541</v>
-      </c>
       <c r="G413" t="b">
-        <v>1</v>
-      </c>
-      <c r="H413" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:43" x14ac:dyDescent="0.35">
@@ -29662,14 +29113,8 @@
       <c r="E414" t="s">
         <v>504</v>
       </c>
-      <c r="F414" s="2">
-        <v>44541</v>
-      </c>
       <c r="G414" t="b">
-        <v>1</v>
-      </c>
-      <c r="H414" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:43" x14ac:dyDescent="0.35">
@@ -30979,14 +30424,8 @@
       <c r="E429" t="s">
         <v>820</v>
       </c>
-      <c r="F429" s="2">
-        <v>44541</v>
-      </c>
       <c r="G429" t="b">
-        <v>1</v>
-      </c>
-      <c r="H429" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:43" x14ac:dyDescent="0.35">
@@ -31005,14 +30444,8 @@
       <c r="E430" t="s">
         <v>822</v>
       </c>
-      <c r="F430" s="2">
-        <v>44541</v>
-      </c>
       <c r="G430" t="b">
-        <v>1</v>
-      </c>
-      <c r="H430" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:43" x14ac:dyDescent="0.35">
@@ -31031,14 +30464,8 @@
       <c r="E431" t="s">
         <v>824</v>
       </c>
-      <c r="F431" s="2">
-        <v>44541</v>
-      </c>
       <c r="G431" t="b">
-        <v>1</v>
-      </c>
-      <c r="H431" s="3">
-        <v>42825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:43" x14ac:dyDescent="0.35">
@@ -31057,14 +30484,8 @@
       <c r="E432" t="s">
         <v>826</v>
       </c>
-      <c r="F432" s="2">
-        <v>44541</v>
-      </c>
       <c r="G432" t="b">
-        <v>1</v>
-      </c>
-      <c r="H432" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:43" x14ac:dyDescent="0.35">
@@ -31083,14 +30504,8 @@
       <c r="E433" t="s">
         <v>824</v>
       </c>
-      <c r="F433" s="2">
-        <v>44541</v>
-      </c>
       <c r="G433" t="b">
-        <v>1</v>
-      </c>
-      <c r="H433" s="3">
-        <v>42825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:43" x14ac:dyDescent="0.35">
@@ -31109,14 +30524,8 @@
       <c r="E434" t="s">
         <v>830</v>
       </c>
-      <c r="F434" s="2">
-        <v>44541</v>
-      </c>
       <c r="G434" t="b">
-        <v>1</v>
-      </c>
-      <c r="H434" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:43" x14ac:dyDescent="0.35">
@@ -31135,14 +30544,8 @@
       <c r="E435" t="s">
         <v>832</v>
       </c>
-      <c r="F435" s="2">
-        <v>44541</v>
-      </c>
       <c r="G435" t="b">
-        <v>1</v>
-      </c>
-      <c r="H435" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:43" x14ac:dyDescent="0.35">
@@ -31161,14 +30564,8 @@
       <c r="E436" t="s">
         <v>834</v>
       </c>
-      <c r="F436" s="2">
-        <v>44541</v>
-      </c>
       <c r="G436" t="b">
-        <v>1</v>
-      </c>
-      <c r="H436" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:43" x14ac:dyDescent="0.35">
@@ -34172,14 +33569,8 @@
       <c r="E473" t="s">
         <v>883</v>
       </c>
-      <c r="F473" s="2">
-        <v>44541</v>
-      </c>
       <c r="G473" t="b">
-        <v>1</v>
-      </c>
-      <c r="H473" s="3">
-        <v>40633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:43" x14ac:dyDescent="0.35">
@@ -35492,7 +34883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>2982</v>
       </c>
@@ -35512,7 +34903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>2983</v>
       </c>
@@ -35532,7 +34923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>2984</v>
       </c>
@@ -35670,7 +35061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>2987</v>
       </c>
@@ -35690,7 +35081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:43" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>2988</v>
       </c>
@@ -35726,14 +35117,8 @@
       <c r="E491" t="s">
         <v>883</v>
       </c>
-      <c r="F491" s="2">
-        <v>44541</v>
-      </c>
       <c r="G491" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" s="3">
-        <v>40633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:43" x14ac:dyDescent="0.35">
@@ -35840,14 +35225,8 @@
       <c r="E494" t="s">
         <v>930</v>
       </c>
-      <c r="F494" s="2">
-        <v>44541</v>
-      </c>
       <c r="G494" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" s="3">
-        <v>42825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:43" x14ac:dyDescent="0.35">
@@ -35866,14 +35245,8 @@
       <c r="E495" t="s">
         <v>932</v>
       </c>
-      <c r="F495" s="2">
-        <v>44541</v>
-      </c>
       <c r="G495" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" s="3">
-        <v>43190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:43" x14ac:dyDescent="0.35">
@@ -35892,14 +35265,8 @@
       <c r="E496" t="s">
         <v>934</v>
       </c>
-      <c r="F496" s="2">
-        <v>44541</v>
-      </c>
       <c r="G496" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" s="3">
-        <v>42460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:41" x14ac:dyDescent="0.35">
@@ -35918,14 +35285,8 @@
       <c r="E497" t="s">
         <v>936</v>
       </c>
-      <c r="F497" s="2">
-        <v>44541</v>
-      </c>
       <c r="G497" t="b">
-        <v>1</v>
-      </c>
-      <c r="H497" s="3">
-        <v>43921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:41" x14ac:dyDescent="0.35">
@@ -35944,14 +35305,8 @@
       <c r="E498" t="s">
         <v>938</v>
       </c>
-      <c r="F498" s="2">
-        <v>44541</v>
-      </c>
       <c r="G498" t="b">
-        <v>1</v>
-      </c>
-      <c r="H498" s="3">
-        <v>42094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:41" x14ac:dyDescent="0.35">
@@ -35970,14 +35325,8 @@
       <c r="E499" t="s">
         <v>940</v>
       </c>
-      <c r="F499" s="2">
-        <v>44541</v>
-      </c>
       <c r="G499" t="b">
-        <v>1</v>
-      </c>
-      <c r="H499" s="3">
-        <v>43555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:41" x14ac:dyDescent="0.35">
@@ -36099,13 +35448,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ501" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="TRUE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AQ501" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/t_Batch.xlsx
+++ b/t_Batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://morningstaronline-my.sharepoint.com/personal/spencer_klug_pitchbook_com/Documents/India_PF_Expansion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2161480A4276A4DEEC4C5CD4475DCE3A874A08A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97B65D44-3FFF-4F4B-B22E-57D7571FBEBB}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_2161480A4276A4DEEC4C5CD4475DCE3A874A08A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D9330A7-50C3-420A-849D-477A120FE307}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2866,7 +2866,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -2923,7 +2923,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3230,7 +3230,7 @@
   <dimension ref="A1:AQ501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3366,7 +3366,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2500</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2501</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2502</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2503</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>19658</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2504</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>57719929</v>
       </c>
     </row>
-    <row r="7" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2505</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2506</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2507</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2508</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2509</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2510</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2511</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>3365672480</v>
       </c>
     </row>
-    <row r="14" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2512</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2513</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="16" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2514</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2515</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2516</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>1152721</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2517</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2518</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2519</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2520</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2521</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2522</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>1957354</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2523</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>126339</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2524</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>88763308</v>
       </c>
     </row>
-    <row r="27" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2525</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2526</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2527</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2528</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2529</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>40402</v>
       </c>
     </row>
-    <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2530</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2531</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>-49399460</v>
       </c>
     </row>
-    <row r="34" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2532</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2533</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2534</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2535</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2536</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2537</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2538</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>87150625</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2539</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>109312685</v>
       </c>
     </row>
-    <row r="42" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2540</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2541</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>-27794630</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2542</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>14990367</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2543</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>6114283</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2544</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>13485241</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2545</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>13977126</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2546</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>11501273</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2547</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>4224841</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2548</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>8038815</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2549</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>3391833</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2550</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>556896</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2551</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>87331</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2552</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2553</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2554</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2555</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>-202</v>
       </c>
     </row>
-    <row r="58" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2556</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2557</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2558</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2559</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>5111727</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2560</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>5111727</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2561</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>652115</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2562</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>2957259</v>
       </c>
     </row>
-    <row r="65" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2563</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2564</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>12048236</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2565</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2566</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>39081739</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2567</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2568</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>6406128</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2569</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>3440282</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2570</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>9430436</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2571</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>1887472</v>
       </c>
     </row>
-    <row r="74" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2572</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2573</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>679149</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2574</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>10606391</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2575</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>16019153</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2576</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2577</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2578</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2579</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2580</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>2581</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2582</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2583</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2584</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>2585</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>2586</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>2587</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>2588</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>27287270</v>
       </c>
     </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2589</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>795730</v>
       </c>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>2590</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>852949</v>
       </c>
     </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2591</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>436493</v>
       </c>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2592</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2593</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>804052</v>
       </c>
     </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2594</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2595</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>1156345</v>
       </c>
     </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2596</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>17384</v>
       </c>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2597</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>21151</v>
       </c>
     </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2598</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>21151</v>
       </c>
     </row>
-    <row r="101" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2599</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2600</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2601</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2602</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2603</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2604</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2605</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2606</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2607</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>23177551</v>
       </c>
     </row>
-    <row r="110" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2608</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2609</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>1730079</v>
       </c>
     </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2610</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>454944</v>
       </c>
     </row>
-    <row r="113" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2611</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2612</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2613</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>6545</v>
       </c>
     </row>
-    <row r="116" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2614</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>5745</v>
       </c>
     </row>
-    <row r="117" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2615</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2616</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2617</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2618</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2619</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>8871</v>
       </c>
     </row>
-    <row r="122" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2620</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2621</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2622</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2623</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2624</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2625</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2626</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2627</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>13796806</v>
       </c>
     </row>
-    <row r="130" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2628</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2629</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>181441</v>
       </c>
     </row>
-    <row r="132" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2630</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2631</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="134" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2632</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="135" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2633</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>-731227</v>
       </c>
     </row>
-    <row r="136" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2634</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2635</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>114572</v>
       </c>
     </row>
-    <row r="138" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2636</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2637</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2638</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2639</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2640</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2641</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2642</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2643</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2644</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>4235635</v>
       </c>
     </row>
-    <row r="147" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2645</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2646</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2647</v>
       </c>
@@ -12944,7 +12944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>2648</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2649</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2650</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2651</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>2652</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>2418677</v>
       </c>
     </row>
-    <row r="155" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>2653</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>2654</v>
       </c>
@@ -13273,7 +13273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2655</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>2656</v>
       </c>
@@ -13313,7 +13313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>2657</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>2658</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>2659</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>3500488</v>
       </c>
     </row>
-    <row r="162" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>2660</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>3395760</v>
       </c>
     </row>
-    <row r="163" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>2661</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>2662</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>3682587</v>
       </c>
     </row>
-    <row r="165" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>2663</v>
       </c>
@@ -13591,7 +13591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>2664</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>2665</v>
       </c>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>2666</v>
       </c>
@@ -13651,7 +13651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>2667</v>
       </c>
@@ -13695,7 +13695,7 @@
         <v>3596</v>
       </c>
     </row>
-    <row r="170" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>2668</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="171" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>2669</v>
       </c>
@@ -13783,7 +13783,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="172" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>2670</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="173" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>2671</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>2672</v>
       </c>
@@ -13867,7 +13867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>2673</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>2674</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>2675</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>2676</v>
       </c>
@@ -13947,7 +13947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>2677</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>2678</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="181" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>2679</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>2680</v>
       </c>
@@ -14096,7 +14096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>2681</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>2682</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>2805547</v>
       </c>
     </row>
-    <row r="185" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>2683</v>
       </c>
@@ -14291,7 +14291,7 @@
         <v>132100000</v>
       </c>
     </row>
-    <row r="186" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>2684</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>132100000</v>
       </c>
     </row>
-    <row r="187" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>2685</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>2686</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>132100000</v>
       </c>
     </row>
-    <row r="189" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>2687</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>308657065</v>
       </c>
     </row>
-    <row r="190" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>2688</v>
       </c>
@@ -14946,7 +14946,7 @@
         <v>479239767</v>
       </c>
     </row>
-    <row r="191" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>2689</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>211705535</v>
       </c>
     </row>
-    <row r="192" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>2690</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>179879869</v>
       </c>
     </row>
-    <row r="193" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>2691</v>
       </c>
@@ -15336,7 +15336,7 @@
         <v>194405874</v>
       </c>
     </row>
-    <row r="194" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>2692</v>
       </c>
@@ -15467,7 +15467,7 @@
         <v>525805399</v>
       </c>
     </row>
-    <row r="195" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>2693</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>161539082</v>
       </c>
     </row>
-    <row r="196" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>2694</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>91755616</v>
       </c>
     </row>
-    <row r="197" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>2695</v>
       </c>
@@ -15683,7 +15683,7 @@
         <v>2936267</v>
       </c>
     </row>
-    <row r="198" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>2696</v>
       </c>
@@ -15784,7 +15784,7 @@
         <v>136527564</v>
       </c>
     </row>
-    <row r="199" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>2697</v>
       </c>
@@ -15843,7 +15843,7 @@
         <v>4730264</v>
       </c>
     </row>
-    <row r="200" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>2698</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>102763709</v>
       </c>
     </row>
-    <row r="201" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>2699</v>
       </c>
@@ -15997,7 +15997,7 @@
         <v>3531868</v>
       </c>
     </row>
-    <row r="202" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>2700</v>
       </c>
@@ -16041,7 +16041,7 @@
         <v>1287357</v>
       </c>
     </row>
-    <row r="203" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>2701</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>12024079</v>
       </c>
     </row>
-    <row r="204" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>2702</v>
       </c>
@@ -16138,7 +16138,7 @@
         <v>1568495</v>
       </c>
     </row>
-    <row r="205" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>2703</v>
       </c>
@@ -16191,7 +16191,7 @@
         <v>10908968</v>
       </c>
     </row>
-    <row r="206" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>2704</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>2705</v>
       </c>
@@ -16231,7 +16231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>2706</v>
       </c>
@@ -16251,7 +16251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>2707</v>
       </c>
@@ -16271,7 +16271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>2708</v>
       </c>
@@ -16291,7 +16291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>2709</v>
       </c>
@@ -16311,7 +16311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>2710</v>
       </c>
@@ -16331,7 +16331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>2711</v>
       </c>
@@ -16351,7 +16351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>2712</v>
       </c>
@@ -16371,7 +16371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>2713</v>
       </c>
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>2714</v>
       </c>
@@ -16426,7 +16426,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="217" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>2715</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>2716</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>2717</v>
       </c>
@@ -16525,7 +16525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>2718</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>2719</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>2720</v>
       </c>
@@ -16693,7 +16693,7 @@
         <v>6996986</v>
       </c>
     </row>
-    <row r="223" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>2721</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>6885237</v>
       </c>
     </row>
-    <row r="224" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>2722</v>
       </c>
@@ -16925,7 +16925,7 @@
         <v>2430934</v>
       </c>
     </row>
-    <row r="225" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>2723</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>2724</v>
       </c>
@@ -17034,7 +17034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>2725</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>2726</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>7467480</v>
       </c>
     </row>
-    <row r="229" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>2727</v>
       </c>
@@ -17286,7 +17286,7 @@
         <v>7943754</v>
       </c>
     </row>
-    <row r="230" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>2728</v>
       </c>
@@ -17417,7 +17417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>2729</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>2730</v>
       </c>
@@ -17679,7 +17679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>2731</v>
       </c>
@@ -17810,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>2732</v>
       </c>
@@ -17830,7 +17830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>2733</v>
       </c>
@@ -17850,7 +17850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>2734</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>2735</v>
       </c>
@@ -17890,7 +17890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>2736</v>
       </c>
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>2737</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>2738</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>2739</v>
       </c>
@@ -18009,7 +18009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>2740</v>
       </c>
@@ -18029,7 +18029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>2741</v>
       </c>
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>2742</v>
       </c>
@@ -18093,7 +18093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>2743</v>
       </c>
@@ -18113,7 +18113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>2744</v>
       </c>
@@ -18133,7 +18133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>2745</v>
       </c>
@@ -18153,7 +18153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>2746</v>
       </c>
@@ -18173,7 +18173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>2747</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>2748</v>
       </c>
@@ -18213,7 +18213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>2749</v>
       </c>
@@ -18272,7 +18272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>2750</v>
       </c>
@@ -18331,7 +18331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>2751</v>
       </c>
@@ -18351,7 +18351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>2752</v>
       </c>
@@ -18395,7 +18395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>2753</v>
       </c>
@@ -18439,7 +18439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>2754</v>
       </c>
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>2755</v>
       </c>
@@ -18479,7 +18479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>2756</v>
       </c>
@@ -18499,7 +18499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>2757</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>2758</v>
       </c>
@@ -18647,7 +18647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>2759</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>2760</v>
       </c>
@@ -18909,7 +18909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>2761</v>
       </c>
@@ -19010,7 +19010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>2762</v>
       </c>
@@ -19111,7 +19111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>2763</v>
       </c>
@@ -19131,7 +19131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>2764</v>
       </c>
@@ -19151,7 +19151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>2765</v>
       </c>
@@ -19171,7 +19171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>2766</v>
       </c>
@@ -19191,7 +19191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>2767</v>
       </c>
@@ -19211,7 +19211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>2768</v>
       </c>
@@ -19231,7 +19231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>2769</v>
       </c>
@@ -19251,7 +19251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>2770</v>
       </c>
@@ -19352,7 +19352,7 @@
         <v>4573300</v>
       </c>
     </row>
-    <row r="273" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>2771</v>
       </c>
@@ -19405,7 +19405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>2772</v>
       </c>
@@ -19506,7 +19506,7 @@
         <v>9512589</v>
       </c>
     </row>
-    <row r="275" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>2773</v>
       </c>
@@ -19559,7 +19559,7 @@
         <v>-35183762</v>
       </c>
     </row>
-    <row r="276" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>2774</v>
       </c>
@@ -19597,7 +19597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>2775</v>
       </c>
@@ -19650,7 +19650,7 @@
         <v>-58962742</v>
       </c>
     </row>
-    <row r="278" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>2776</v>
       </c>
@@ -19670,7 +19670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>2777</v>
       </c>
@@ -19690,7 +19690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>2778</v>
       </c>
@@ -19710,7 +19710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>2779</v>
       </c>
@@ -19730,7 +19730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>2780</v>
       </c>
@@ -19750,7 +19750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>2781</v>
       </c>
@@ -19770,7 +19770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>2782</v>
       </c>
@@ -19790,7 +19790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>2783</v>
       </c>
@@ -19891,7 +19891,7 @@
         <v>4162974</v>
       </c>
     </row>
-    <row r="286" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>2784</v>
       </c>
@@ -19944,7 +19944,7 @@
         <v>-842147</v>
       </c>
     </row>
-    <row r="287" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>2785</v>
       </c>
@@ -20003,7 +20003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>2786</v>
       </c>
@@ -20023,7 +20023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>2787</v>
       </c>
@@ -20154,7 +20154,7 @@
         <v>141991</v>
       </c>
     </row>
-    <row r="290" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>2788</v>
       </c>
@@ -20282,7 +20282,7 @@
         <v>143840</v>
       </c>
     </row>
-    <row r="291" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>2789</v>
       </c>
@@ -20413,7 +20413,7 @@
         <v>141991</v>
       </c>
     </row>
-    <row r="292" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>2790</v>
       </c>
@@ -20544,7 +20544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>2791</v>
       </c>
@@ -20675,7 +20675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>2792</v>
       </c>
@@ -20734,7 +20734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>2793</v>
       </c>
@@ -20784,7 +20784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>2794</v>
       </c>
@@ -20885,7 +20885,7 @@
         <v>785174</v>
       </c>
     </row>
-    <row r="297" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>2795</v>
       </c>
@@ -20986,7 +20986,7 @@
         <v>777116</v>
       </c>
     </row>
-    <row r="298" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>2796</v>
       </c>
@@ -21087,7 +21087,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="299" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>2797</v>
       </c>
@@ -21146,7 +21146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>2798</v>
       </c>
@@ -21166,7 +21166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>2799</v>
       </c>
@@ -21186,7 +21186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>2800</v>
       </c>
@@ -21206,7 +21206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>2801</v>
       </c>
@@ -21337,7 +21337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>2802</v>
       </c>
@@ -21396,7 +21396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>2803</v>
       </c>
@@ -21443,7 +21443,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="306" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>2804</v>
       </c>
@@ -21490,7 +21490,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="307" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>2805</v>
       </c>
@@ -21621,7 +21621,7 @@
         <v>2791629</v>
       </c>
     </row>
-    <row r="308" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>2806</v>
       </c>
@@ -21749,7 +21749,7 @@
         <v>4281762</v>
       </c>
     </row>
-    <row r="309" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>2807</v>
       </c>
@@ -21880,7 +21880,7 @@
         <v>2865667</v>
       </c>
     </row>
-    <row r="310" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>2808</v>
       </c>
@@ -22011,7 +22011,7 @@
         <v>3087981</v>
       </c>
     </row>
-    <row r="311" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>2809</v>
       </c>
@@ -22142,7 +22142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>2810</v>
       </c>
@@ -22273,7 +22273,7 @@
         <v>3451523</v>
       </c>
     </row>
-    <row r="313" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>2811</v>
       </c>
@@ -22332,7 +22332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>2812</v>
       </c>
@@ -22433,7 +22433,7 @@
         <v>35600</v>
       </c>
     </row>
-    <row r="315" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>2813</v>
       </c>
@@ -22483,7 +22483,7 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="316" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>2814</v>
       </c>
@@ -22584,7 +22584,7 @@
         <v>796806</v>
       </c>
     </row>
-    <row r="317" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>2815</v>
       </c>
@@ -22685,7 +22685,7 @@
         <v>2894163</v>
       </c>
     </row>
-    <row r="318" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>2816</v>
       </c>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>2817</v>
       </c>
@@ -22764,7 +22764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>2818</v>
       </c>
@@ -22784,7 +22784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>2819</v>
       </c>
@@ -22804,7 +22804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>2820</v>
       </c>
@@ -22824,7 +22824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>2821</v>
       </c>
@@ -22883,7 +22883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>2822</v>
       </c>
@@ -22942,7 +22942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>2823</v>
       </c>
@@ -23001,7 +23001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>2824</v>
       </c>
@@ -23048,7 +23048,7 @@
         <v>6571042</v>
       </c>
     </row>
-    <row r="327" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>2825</v>
       </c>
@@ -23092,7 +23092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>2826</v>
       </c>
@@ -23136,7 +23136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>2827</v>
       </c>
@@ -23177,7 +23177,7 @@
         <v>7361033</v>
       </c>
     </row>
-    <row r="330" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>2828</v>
       </c>
@@ -23221,7 +23221,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="331" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>2829</v>
       </c>
@@ -23241,7 +23241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>2830</v>
       </c>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>2831</v>
       </c>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>2832</v>
       </c>
@@ -23301,7 +23301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>2833</v>
       </c>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>2834</v>
       </c>
@@ -23341,7 +23341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>2835</v>
       </c>
@@ -23400,7 +23400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>2836</v>
       </c>
@@ -23459,7 +23459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>2837</v>
       </c>
@@ -23518,7 +23518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>2838</v>
       </c>
@@ -23538,7 +23538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>2839</v>
       </c>
@@ -23582,7 +23582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>2840</v>
       </c>
@@ -23602,7 +23602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>2841</v>
       </c>
@@ -23622,7 +23622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>2842</v>
       </c>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>2843</v>
       </c>
@@ -23773,7 +23773,7 @@
         <v>2081494</v>
       </c>
     </row>
-    <row r="346" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>2844</v>
       </c>
@@ -23904,7 +23904,7 @@
         <v>123232</v>
       </c>
     </row>
-    <row r="347" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>2845</v>
       </c>
@@ -23963,7 +23963,7 @@
         <v>491033</v>
       </c>
     </row>
-    <row r="348" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>2846</v>
       </c>
@@ -24001,7 +24001,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="349" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>2847</v>
       </c>
@@ -24042,7 +24042,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="350" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>2848</v>
       </c>
@@ -24086,7 +24086,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="351" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>2849</v>
       </c>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>2850</v>
       </c>
@@ -24345,7 +24345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>2851</v>
       </c>
@@ -24476,7 +24476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>2852</v>
       </c>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>2853</v>
       </c>
@@ -24738,7 +24738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>2854</v>
       </c>
@@ -24839,7 +24839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>2855</v>
       </c>
@@ -24889,7 +24889,7 @@
         <v>549976</v>
       </c>
     </row>
-    <row r="358" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>2856</v>
       </c>
@@ -24990,7 +24990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>2857</v>
       </c>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>2858</v>
       </c>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>2859</v>
       </c>
@@ -25191,7 +25191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>2860</v>
       </c>
@@ -25241,7 +25241,7 @@
         <v>31648</v>
       </c>
     </row>
-    <row r="363" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>2861</v>
       </c>
@@ -25291,7 +25291,7 @@
         <v>36711</v>
       </c>
     </row>
-    <row r="364" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>2862</v>
       </c>
@@ -25422,7 +25422,7 @@
         <v>1333450</v>
       </c>
     </row>
-    <row r="365" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>2863</v>
       </c>
@@ -25553,7 +25553,7 @@
         <v>2852160</v>
       </c>
     </row>
-    <row r="366" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>2864</v>
       </c>
@@ -25684,7 +25684,7 @@
         <v>545599</v>
       </c>
     </row>
-    <row r="367" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>2865</v>
       </c>
@@ -25815,7 +25815,7 @@
         <v>1006260</v>
       </c>
     </row>
-    <row r="368" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>2866</v>
       </c>
@@ -25943,7 +25943,7 @@
         <v>252906</v>
       </c>
     </row>
-    <row r="369" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>2867</v>
       </c>
@@ -26074,7 +26074,7 @@
         <v>1273977</v>
       </c>
     </row>
-    <row r="370" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>2868</v>
       </c>
@@ -26175,7 +26175,7 @@
         <v>1606872</v>
       </c>
     </row>
-    <row r="371" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>2869</v>
       </c>
@@ -26276,7 +26276,7 @@
         <v>340452</v>
       </c>
     </row>
-    <row r="372" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>2870</v>
       </c>
@@ -26326,7 +26326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>2871</v>
       </c>
@@ -26385,7 +26385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>2872</v>
       </c>
@@ -26486,7 +26486,7 @@
         <v>578937</v>
       </c>
     </row>
-    <row r="375" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>2873</v>
       </c>
@@ -26545,7 +26545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>2874</v>
       </c>
@@ -26565,7 +26565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>2875</v>
       </c>
@@ -26585,7 +26585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>2876</v>
       </c>
@@ -26605,7 +26605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>2877</v>
       </c>
@@ -26625,7 +26625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>2878</v>
       </c>
@@ -26681,7 +26681,7 @@
         <v>109985060</v>
       </c>
     </row>
-    <row r="381" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>2879</v>
       </c>
@@ -26737,7 +26737,7 @@
         <v>96316</v>
       </c>
     </row>
-    <row r="382" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>2880</v>
       </c>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>2881</v>
       </c>
@@ -26816,7 +26816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>2882</v>
       </c>
@@ -26836,7 +26836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>2883</v>
       </c>
@@ -26856,7 +26856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>2884</v>
       </c>
@@ -26876,7 +26876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>2885</v>
       </c>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>2886</v>
       </c>
@@ -26985,7 +26985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>2887</v>
       </c>
@@ -27005,7 +27005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>2888</v>
       </c>
@@ -27025,7 +27025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>2889</v>
       </c>
@@ -27045,7 +27045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>2890</v>
       </c>
@@ -27065,7 +27065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>2891</v>
       </c>
@@ -27196,7 +27196,7 @@
         <v>4130338</v>
       </c>
     </row>
-    <row r="394" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>2892</v>
       </c>
@@ -27327,7 +27327,7 @@
         <v>3873911</v>
       </c>
     </row>
-    <row r="395" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>2893</v>
       </c>
@@ -27458,7 +27458,7 @@
         <v>8480052</v>
       </c>
     </row>
-    <row r="396" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>2894</v>
       </c>
@@ -27589,7 +27589,7 @@
         <v>5499955</v>
       </c>
     </row>
-    <row r="397" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>2895</v>
       </c>
@@ -27717,7 +27717,7 @@
         <v>741902</v>
       </c>
     </row>
-    <row r="398" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>2896</v>
       </c>
@@ -27848,7 +27848,7 @@
         <v>5147252</v>
       </c>
     </row>
-    <row r="399" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>2897</v>
       </c>
@@ -27949,7 +27949,7 @@
         <v>603107</v>
       </c>
     </row>
-    <row r="400" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>2898</v>
       </c>
@@ -28050,7 +28050,7 @@
         <v>254054</v>
       </c>
     </row>
-    <row r="401" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>2899</v>
       </c>
@@ -28070,7 +28070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>2900</v>
       </c>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>2901</v>
       </c>
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>2902</v>
       </c>
@@ -28241,7 +28241,7 @@
         <v>53481914</v>
       </c>
     </row>
-    <row r="405" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>2903</v>
       </c>
@@ -28372,7 +28372,7 @@
         <v>80388130</v>
       </c>
     </row>
-    <row r="406" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>2904</v>
       </c>
@@ -28503,7 +28503,7 @@
         <v>29619957</v>
       </c>
     </row>
-    <row r="407" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>2905</v>
       </c>
@@ -28604,7 +28604,7 @@
         <v>3646922</v>
       </c>
     </row>
-    <row r="408" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>2906</v>
       </c>
@@ -28705,7 +28705,7 @@
         <v>9037998</v>
       </c>
     </row>
-    <row r="409" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>2907</v>
       </c>
@@ -28806,7 +28806,7 @@
         <v>9037998</v>
       </c>
     </row>
-    <row r="410" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>2908</v>
       </c>
@@ -28907,7 +28907,7 @@
         <v>7364222</v>
       </c>
     </row>
-    <row r="411" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>2909</v>
       </c>
@@ -28957,7 +28957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>2910</v>
       </c>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>2911</v>
       </c>
@@ -28997,7 +28997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>2912</v>
       </c>
@@ -29017,7 +29017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>2913</v>
       </c>
@@ -29055,7 +29055,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="416" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>2914</v>
       </c>
@@ -29096,7 +29096,7 @@
         <v>36243</v>
       </c>
     </row>
-    <row r="417" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>2915</v>
       </c>
@@ -29152,7 +29152,7 @@
         <v>49643198</v>
       </c>
     </row>
-    <row r="418" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>2916</v>
       </c>
@@ -29283,7 +29283,7 @@
         <v>426336</v>
       </c>
     </row>
-    <row r="419" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>2917</v>
       </c>
@@ -29414,7 +29414,7 @@
         <v>412789</v>
       </c>
     </row>
-    <row r="420" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>2918</v>
       </c>
@@ -29545,7 +29545,7 @@
         <v>2977378</v>
       </c>
     </row>
-    <row r="421" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>2919</v>
       </c>
@@ -29676,7 +29676,7 @@
         <v>522823</v>
       </c>
     </row>
-    <row r="422" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>2920</v>
       </c>
@@ -29807,7 +29807,7 @@
         <v>825446</v>
       </c>
     </row>
-    <row r="423" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>2921</v>
       </c>
@@ -29938,7 +29938,7 @@
         <v>6483949</v>
       </c>
     </row>
-    <row r="424" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>2922</v>
       </c>
@@ -30039,7 +30039,7 @@
         <v>1283132</v>
       </c>
     </row>
-    <row r="425" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>2923</v>
       </c>
@@ -30095,7 +30095,7 @@
         <v>51016342</v>
       </c>
     </row>
-    <row r="426" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>2924</v>
       </c>
@@ -30148,7 +30148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>2925</v>
       </c>
@@ -30249,7 +30249,7 @@
         <v>20335</v>
       </c>
     </row>
-    <row r="428" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>2926</v>
       </c>
@@ -30308,7 +30308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>2927</v>
       </c>
@@ -30328,7 +30328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>2928</v>
       </c>
@@ -30348,7 +30348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>2929</v>
       </c>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>2930</v>
       </c>
@@ -30388,7 +30388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>2931</v>
       </c>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>2932</v>
       </c>
@@ -30428,7 +30428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>2933</v>
       </c>
@@ -30448,7 +30448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>2934</v>
       </c>
@@ -30468,7 +30468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>2935</v>
       </c>
@@ -30596,7 +30596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>2936</v>
       </c>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>2937</v>
       </c>
@@ -30828,7 +30828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>2938</v>
       </c>
@@ -30887,7 +30887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>2939</v>
       </c>
@@ -30946,7 +30946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>2940</v>
       </c>
@@ -31005,7 +31005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>2941</v>
       </c>
@@ -31064,7 +31064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>2942</v>
       </c>
@@ -31123,7 +31123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>2943</v>
       </c>
@@ -31182,7 +31182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>2944</v>
       </c>
@@ -31283,7 +31283,7 @@
         <v>6540</v>
       </c>
     </row>
-    <row r="447" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>2945</v>
       </c>
@@ -31384,7 +31384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>2946</v>
       </c>
@@ -31443,7 +31443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>2947</v>
       </c>
@@ -31502,7 +31502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>2948</v>
       </c>
@@ -31546,7 +31546,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="451" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>2949</v>
       </c>
@@ -31590,7 +31590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>2950</v>
       </c>
@@ -31721,7 +31721,7 @@
         <v>13375713</v>
       </c>
     </row>
-    <row r="453" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>2951</v>
       </c>
@@ -31852,7 +31852,7 @@
         <v>13375713</v>
       </c>
     </row>
-    <row r="454" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>2952</v>
       </c>
@@ -31983,7 +31983,7 @@
         <v>38250045</v>
       </c>
     </row>
-    <row r="455" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>2953</v>
       </c>
@@ -32114,7 +32114,7 @@
         <v>45151783</v>
       </c>
     </row>
-    <row r="456" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>2954</v>
       </c>
@@ -32245,7 +32245,7 @@
         <v>8524000</v>
       </c>
     </row>
-    <row r="457" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>2955</v>
       </c>
@@ -32373,7 +32373,7 @@
         <v>555000</v>
       </c>
     </row>
-    <row r="458" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>2956</v>
       </c>
@@ -32501,7 +32501,7 @@
         <v>555000</v>
       </c>
     </row>
-    <row r="459" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>2957</v>
       </c>
@@ -32632,7 +32632,7 @@
         <v>29183637</v>
       </c>
     </row>
-    <row r="460" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>2958</v>
       </c>
@@ -32733,7 +32733,7 @@
         <v>1181750</v>
       </c>
     </row>
-    <row r="461" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>2959</v>
       </c>
@@ -32834,7 +32834,7 @@
         <v>649650</v>
       </c>
     </row>
-    <row r="462" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>2960</v>
       </c>
@@ -32935,7 +32935,7 @@
         <v>550550</v>
       </c>
     </row>
-    <row r="463" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>2961</v>
       </c>
@@ -32994,7 +32994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>2962</v>
       </c>
@@ -33053,7 +33053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>2963</v>
       </c>
@@ -33112,7 +33112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>2964</v>
       </c>
@@ -33162,7 +33162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>2965</v>
       </c>
@@ -33215,7 +33215,7 @@
         <v>7739</v>
       </c>
     </row>
-    <row r="468" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>2966</v>
       </c>
@@ -33268,7 +33268,7 @@
         <v>73514</v>
       </c>
     </row>
-    <row r="469" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>2967</v>
       </c>
@@ -33321,7 +33321,7 @@
         <v>-24446</v>
       </c>
     </row>
-    <row r="470" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>2968</v>
       </c>
@@ -33365,7 +33365,7 @@
         <v>-10307</v>
       </c>
     </row>
-    <row r="471" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>2969</v>
       </c>
@@ -33409,7 +33409,7 @@
         <v>6979</v>
       </c>
     </row>
-    <row r="472" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>2970</v>
       </c>
@@ -33453,7 +33453,7 @@
         <v>-14950</v>
       </c>
     </row>
-    <row r="473" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>2971</v>
       </c>
@@ -33473,7 +33473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>2972</v>
       </c>
@@ -33604,7 +33604,7 @@
         <v>7212567</v>
       </c>
     </row>
-    <row r="475" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>2973</v>
       </c>
@@ -33735,7 +33735,7 @@
         <v>15896763</v>
       </c>
     </row>
-    <row r="476" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>2974</v>
       </c>
@@ -33866,7 +33866,7 @@
         <v>16413487</v>
       </c>
     </row>
-    <row r="477" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>2975</v>
       </c>
@@ -33997,7 +33997,7 @@
         <v>7473313</v>
       </c>
     </row>
-    <row r="478" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>2976</v>
       </c>
@@ -34128,7 +34128,7 @@
         <v>850159</v>
       </c>
     </row>
-    <row r="479" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>2977</v>
       </c>
@@ -34259,7 +34259,7 @@
         <v>9821157</v>
       </c>
     </row>
-    <row r="480" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>2978</v>
       </c>
@@ -34390,7 +34390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>2979</v>
       </c>
@@ -34521,7 +34521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>2980</v>
       </c>
@@ -34652,7 +34652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>2981</v>
       </c>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>2982</v>
       </c>
@@ -34803,7 +34803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>2983</v>
       </c>
@@ -34823,7 +34823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>2984</v>
       </c>
@@ -34843,7 +34843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>2985</v>
       </c>
@@ -34902,7 +34902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>2986</v>
       </c>
@@ -34961,7 +34961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>2987</v>
       </c>
@@ -34981,7 +34981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>2988</v>
       </c>
@@ -35001,7 +35001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>2989</v>
       </c>
@@ -35021,7 +35021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>2990</v>
       </c>
@@ -35065,7 +35065,7 @@
         <v>3664344</v>
       </c>
     </row>
-    <row r="493" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>2991</v>
       </c>
@@ -35109,7 +35109,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="494" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>2992</v>
       </c>
@@ -35129,7 +35129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>2993</v>
       </c>
@@ -35149,7 +35149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>2994</v>
       </c>
@@ -35169,7 +35169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>2995</v>
       </c>
@@ -35189,7 +35189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>2996</v>
       </c>
@@ -35209,7 +35209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>2997</v>
       </c>
@@ -35229,7 +35229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>2998</v>
       </c>
@@ -35288,7 +35288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>2999</v>
       </c>
@@ -35351,7 +35351,7 @@
   <autoFilter ref="A1:AQ501" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <filters>
-        <filter val="TRUE"/>
+        <filter val="FALSE"/>
       </filters>
     </filterColumn>
   </autoFilter>
